--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98AEB2-3BA0-4330-ACB7-C3AEB56FD5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46E85E-A18C-4374-B6E2-EC9287383CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Roles Assignment Model</t>
-  </si>
-  <si>
-    <t>Role Assignment Model</t>
   </si>
 </sst>
 </file>
@@ -285,58 +282,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
@@ -498,6 +443,31 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -627,6 +597,33 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -708,9 +705,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Role Assignment Model" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,12 +717,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,9 +732,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -2644,12 +2641,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{A5BE2E67-F22A-4F73-94F7-26C5A39BF26C}">
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{AF69A697-CFBA-44A9-B883-4BFF973CF488}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Roles Assignment Model" error="Please select a supported Roles Assignment model." sqref="D2:D1048576" xr:uid="{DBE5860E-059C-4C38-AAF0-B769FF5DABB2}">
+      <formula1>"Custom Roles,Inherit from tenant"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="C2:C1048576" xr:uid="{330C8424-4F14-48F6-B4D5-89224C44A80C}">
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D201" xr:uid="{C9A477E5-E801-4216-90D0-D477B7FD2412}">
-      <formula1>"Custom Roles,Inherit from tenant"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Parent Folder ID" error="Parent Folder ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{42BD5758-4AAC-4BD3-BDD5-69AD22FC3DC7}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4299,12 +4302,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A201" xr:uid="{A36F3259-8F3D-4C75-918D-E15701FC7805}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{6F6543F7-AE88-4150-8B26-6026BA637D52}">
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C201" xr:uid="{A6C40240-4FAF-44B0-A97A-BD0C85FCB314}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Roles Assignment Model" error="Please select a supported Roles Assignment Model." sqref="C2:C1048576" xr:uid="{04E6F3E9-D2CC-4ECB-86C3-A072943BED86}">
       <formula1>"Custom Roles,Inherit from tenant"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{8456E178-7F38-40F1-BEAA-6EE3406AB1F5}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5341,6 +5347,11 @@
       <c r="C201" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{10D088B1-A099-4B77-AC54-4E384F1B461C}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46E85E-A18C-4374-B6E2-EC9287383CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88ADA3-6347-46AC-B76D-12C55EBD69B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88ADA3-6347-46AC-B76D-12C55EBD69B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A2A06-5365-44EE-AA81-23124DBB6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,8 +287,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -301,12 +301,81 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -362,37 +431,6 @@
         </vertical>
         <horizontal style="thin">
           <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
@@ -514,31 +552,6 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -617,31 +630,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -703,11 +691,11 @@
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,12 +705,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,8 +720,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1012,11 +1000,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2678,6 +2666,7 @@
     <col min="3" max="3" width="23.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2738,7 +2727,7 @@
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
@@ -2746,7 +2735,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -2754,7 +2743,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -2762,7 +2751,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
@@ -2770,7 +2759,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -2778,7 +2767,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -2786,7 +2775,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
@@ -2794,7 +2783,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
@@ -2802,7 +2791,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -2810,7 +2799,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -2818,7 +2807,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
@@ -2826,7 +2815,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
@@ -2834,7 +2823,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -2842,7 +2831,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
@@ -2850,7 +2839,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
@@ -2858,7 +2847,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
@@ -2866,7 +2855,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
@@ -2874,7 +2863,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
@@ -2882,7 +2871,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
@@ -2890,7 +2879,7 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
@@ -2898,7 +2887,7 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
@@ -2906,7 +2895,7 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
@@ -2914,7 +2903,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
@@ -2922,7 +2911,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
@@ -2930,7 +2919,7 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
@@ -2938,7 +2927,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
@@ -2946,7 +2935,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
@@ -2954,7 +2943,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
@@ -2962,7 +2951,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
@@ -2970,7 +2959,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
@@ -2978,7 +2967,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
@@ -2986,7 +2975,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
@@ -2994,7 +2983,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
@@ -3002,7 +2991,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
@@ -3010,7 +2999,7 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
@@ -3018,7 +3007,7 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
@@ -3026,7 +3015,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
@@ -3034,7 +3023,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
@@ -3042,7 +3031,7 @@
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
@@ -3050,7 +3039,7 @@
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
@@ -3058,7 +3047,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
@@ -3066,7 +3055,7 @@
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
@@ -3074,7 +3063,7 @@
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
@@ -3082,7 +3071,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
@@ -3090,7 +3079,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
@@ -3098,7 +3087,7 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
@@ -3106,7 +3095,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
@@ -3114,7 +3103,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
@@ -3122,7 +3111,7 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
@@ -3130,7 +3119,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
@@ -3138,7 +3127,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
@@ -3146,7 +3135,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
@@ -3154,7 +3143,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
@@ -3162,7 +3151,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
@@ -3170,7 +3159,7 @@
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
@@ -3178,7 +3167,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
@@ -3186,7 +3175,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
@@ -3194,7 +3183,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
@@ -3202,7 +3191,7 @@
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
@@ -3210,7 +3199,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
@@ -3218,7 +3207,7 @@
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
@@ -3226,7 +3215,7 @@
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
@@ -3234,7 +3223,7 @@
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
@@ -3242,7 +3231,7 @@
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
@@ -3250,7 +3239,7 @@
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
@@ -3258,7 +3247,7 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
@@ -3266,7 +3255,7 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
@@ -3274,7 +3263,7 @@
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
@@ -3282,7 +3271,7 @@
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
@@ -3290,7 +3279,7 @@
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
@@ -3298,7 +3287,7 @@
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
@@ -3306,7 +3295,7 @@
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
@@ -3314,7 +3303,7 @@
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
@@ -3322,7 +3311,7 @@
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
@@ -3330,7 +3319,7 @@
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
@@ -3338,7 +3327,7 @@
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
@@ -3346,7 +3335,7 @@
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
@@ -3354,7 +3343,7 @@
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
@@ -3362,7 +3351,7 @@
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
@@ -3370,7 +3359,7 @@
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
@@ -3378,7 +3367,7 @@
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
@@ -3386,7 +3375,7 @@
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
@@ -3394,7 +3383,7 @@
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
@@ -3402,7 +3391,7 @@
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
@@ -3410,7 +3399,7 @@
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
@@ -3418,7 +3407,7 @@
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
@@ -3426,7 +3415,7 @@
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
@@ -3434,7 +3423,7 @@
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
@@ -3442,7 +3431,7 @@
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
@@ -3450,7 +3439,7 @@
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
@@ -3458,7 +3447,7 @@
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
@@ -3466,7 +3455,7 @@
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
@@ -3474,7 +3463,7 @@
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
@@ -3482,7 +3471,7 @@
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
@@ -3490,7 +3479,7 @@
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
@@ -3498,7 +3487,7 @@
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
@@ -3506,7 +3495,7 @@
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
@@ -3514,7 +3503,7 @@
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
@@ -3522,7 +3511,7 @@
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
@@ -3530,7 +3519,7 @@
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
@@ -3538,7 +3527,7 @@
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
@@ -3546,7 +3535,7 @@
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
@@ -3554,7 +3543,7 @@
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
@@ -3562,7 +3551,7 @@
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
@@ -3570,7 +3559,7 @@
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
@@ -3578,7 +3567,7 @@
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
@@ -3586,7 +3575,7 @@
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
@@ -3594,7 +3583,7 @@
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
@@ -3602,7 +3591,7 @@
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
@@ -3610,7 +3599,7 @@
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
@@ -3618,7 +3607,7 @@
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
@@ -3626,7 +3615,7 @@
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
@@ -3634,7 +3623,7 @@
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
@@ -3642,7 +3631,7 @@
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
@@ -3650,7 +3639,7 @@
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
@@ -3658,7 +3647,7 @@
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
@@ -3666,7 +3655,7 @@
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
@@ -3674,7 +3663,7 @@
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
@@ -3682,7 +3671,7 @@
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
@@ -3690,7 +3679,7 @@
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
@@ -3698,7 +3687,7 @@
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
@@ -3706,7 +3695,7 @@
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
@@ -3714,7 +3703,7 @@
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
@@ -3722,7 +3711,7 @@
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
@@ -3730,7 +3719,7 @@
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
@@ -3738,7 +3727,7 @@
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
@@ -3746,7 +3735,7 @@
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
@@ -3754,7 +3743,7 @@
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
@@ -3762,7 +3751,7 @@
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
@@ -3770,7 +3759,7 @@
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
@@ -3778,7 +3767,7 @@
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
@@ -3786,7 +3775,7 @@
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
@@ -3794,7 +3783,7 @@
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
@@ -3802,7 +3791,7 @@
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
@@ -3810,7 +3799,7 @@
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
@@ -3818,7 +3807,7 @@
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
@@ -3826,7 +3815,7 @@
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
@@ -3834,7 +3823,7 @@
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
       <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
@@ -3842,7 +3831,7 @@
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
       <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+      <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
@@ -3850,7 +3839,7 @@
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
@@ -3858,7 +3847,7 @@
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
@@ -3866,7 +3855,7 @@
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
@@ -3874,7 +3863,7 @@
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
@@ -3882,7 +3871,7 @@
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
@@ -3890,7 +3879,7 @@
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
@@ -3898,7 +3887,7 @@
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
@@ -3906,7 +3895,7 @@
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
       <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
@@ -3914,7 +3903,7 @@
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
       <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
@@ -3922,7 +3911,7 @@
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
       <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
@@ -3930,7 +3919,7 @@
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
       <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
@@ -3938,7 +3927,7 @@
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
       <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+      <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
@@ -3946,7 +3935,7 @@
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
@@ -3954,7 +3943,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+      <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
@@ -3962,7 +3951,7 @@
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
@@ -3970,7 +3959,7 @@
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
@@ -3978,7 +3967,7 @@
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
@@ -3986,7 +3975,7 @@
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
@@ -3994,7 +3983,7 @@
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
@@ -4002,7 +3991,7 @@
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
@@ -4010,7 +3999,7 @@
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
       <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
@@ -4018,7 +4007,7 @@
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
@@ -4026,7 +4015,7 @@
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
       <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
@@ -4034,7 +4023,7 @@
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
@@ -4042,7 +4031,7 @@
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
@@ -4050,7 +4039,7 @@
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
@@ -4058,7 +4047,7 @@
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
       <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
@@ -4066,7 +4055,7 @@
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
@@ -4074,7 +4063,7 @@
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
       <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
@@ -4082,7 +4071,7 @@
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
       <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
@@ -4090,7 +4079,7 @@
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
       <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
@@ -4098,7 +4087,7 @@
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
@@ -4106,7 +4095,7 @@
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
@@ -4114,7 +4103,7 @@
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
       <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
@@ -4122,7 +4111,7 @@
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
       <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
@@ -4130,7 +4119,7 @@
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
       <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
@@ -4138,7 +4127,7 @@
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
       <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
@@ -4146,7 +4135,7 @@
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
@@ -4154,7 +4143,7 @@
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
       <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
@@ -4162,7 +4151,7 @@
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
@@ -4170,7 +4159,7 @@
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
       <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
@@ -4178,7 +4167,7 @@
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
@@ -4186,7 +4175,7 @@
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
       <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
@@ -4194,7 +4183,7 @@
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
@@ -4202,7 +4191,7 @@
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+      <c r="F189" s="4"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
@@ -4210,7 +4199,7 @@
       <c r="C190" s="19"/>
       <c r="D190" s="19"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
@@ -4218,7 +4207,7 @@
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
+      <c r="F191" s="4"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
@@ -4226,7 +4215,7 @@
       <c r="C192" s="19"/>
       <c r="D192" s="19"/>
       <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
@@ -4234,7 +4223,7 @@
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
+      <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
@@ -4242,7 +4231,7 @@
       <c r="C194" s="19"/>
       <c r="D194" s="19"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
@@ -4250,7 +4239,7 @@
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
       <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
@@ -4258,7 +4247,7 @@
       <c r="C196" s="19"/>
       <c r="D196" s="19"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
@@ -4266,7 +4255,7 @@
       <c r="C197" s="19"/>
       <c r="D197" s="19"/>
       <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
@@ -4274,7 +4263,7 @@
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
       <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
@@ -4282,7 +4271,7 @@
       <c r="C199" s="19"/>
       <c r="D199" s="19"/>
       <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
@@ -4290,7 +4279,7 @@
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
       <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
@@ -4298,7 +4287,7 @@
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
       <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="F201" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4333,6 +4322,7 @@
   <cols>
     <col min="1" max="1" width="17.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -4349,1002 +4339,1002 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="19"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="19"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="19"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="19"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="19"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="19"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="19"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="19"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="19"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="19"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="19"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="19"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="19"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="19"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="19"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="19"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="19"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="19"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="19"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="19"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="19"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="19"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="19"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="3"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="3"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="3"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="3"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="3"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="3"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="3"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="3"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="3"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="3"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="3"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="3"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="3"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="3"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="3"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="3"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="3"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="3"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="3"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="3"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
-      <c r="C163" s="3"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
-      <c r="C166" s="3"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
-      <c r="C168" s="3"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
-      <c r="C169" s="3"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
-      <c r="C170" s="3"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
-      <c r="C172" s="3"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="3"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
-      <c r="C175" s="3"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
-      <c r="C176" s="3"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="3"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
-      <c r="C179" s="3"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
-      <c r="C180" s="3"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
-      <c r="C181" s="3"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
-      <c r="C182" s="3"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
-      <c r="C183" s="3"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
-      <c r="C184" s="3"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
-      <c r="C185" s="3"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
-      <c r="C186" s="3"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="3"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
-      <c r="C189" s="3"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
-      <c r="C190" s="3"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
-      <c r="C191" s="3"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
-      <c r="C192" s="3"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
-      <c r="C193" s="3"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
-      <c r="C194" s="3"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
-      <c r="C195" s="3"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
-      <c r="C196" s="3"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
-      <c r="C197" s="3"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
-      <c r="C198" s="3"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
-      <c r="C199" s="3"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="3"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
       <c r="B201" s="20"/>
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A2A06-5365-44EE-AA81-23124DBB6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319ECFD1-B2FE-45F3-9D90-871EE0C55745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
+    <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +60,27 @@
   </si>
   <si>
     <t>Roles Assignment Model</t>
+  </si>
+  <si>
+    <t>Classic Folder Name</t>
+  </si>
+  <si>
+    <t>Modern Folder Name</t>
+  </si>
+  <si>
+    <t>Environment Migration Policy</t>
+  </si>
+  <si>
+    <t>Queue Migration Policy</t>
+  </si>
+  <si>
+    <t>Asset Migration Policy</t>
+  </si>
+  <si>
+    <t>Robot Migration Policy</t>
+  </si>
+  <si>
+    <t>Process Migration Policy</t>
   </si>
 </sst>
 </file>
@@ -229,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -274,11 +296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -307,52 +330,192 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
+        <right/>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="5"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -432,6 +595,31 @@
         <horizontal style="thin">
           <color theme="5"/>
         </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -552,6 +740,31 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -630,6 +843,31 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -687,15 +925,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,12 +943,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,9 +958,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:H201" totalsRowShown="0">
+  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -993,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5348,4 +5603,2090 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
+  <dimension ref="A1:H201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.08984375" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="6"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="6"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201" s="10"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:G201">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$B2 = "Environments to Different Modern Folders"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
+      <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{1C063541-3E55-41EC-A501-1BF9F4A01EC6}">
+      <formula1>"Migrate All Items,Migrate New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576 G2:G201" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
+      <formula1>"Migrate All Robots,Migrate Only Attended Robots,Migrate Only Unattended Robots,Do Not Migrate Robots"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G202:G1048576" xr:uid="{BA962542-8590-40D3-A410-AD2E2D8342FA}">
+      <formula1>"Migrate All Users,Do Not Migrate Users"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{63504AD6-A66D-4F41-A4B6-8F8EC15412E5}">
+      <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders,Do Not Migrate Environments And Processes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{761871B1-D5B1-4845-A315-16DA6F2B6705}">
+      <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D479BB45-4D1E-431E-809A-21F50FCFBB69}">
+      <formula1>"Migrate All Processes,Do Not Migrate Processes"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319ECFD1-B2FE-45F3-9D90-871EE0C55745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FF27C-353E-449D-B203-5AEE794FF2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5609,7 +5609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7664,9 +7664,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
       <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F201" xr:uid="{1C063541-3E55-41EC-A501-1BF9F4A01EC6}">
-      <formula1>"Migrate All Items,Migrate New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576 G2:G201" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
       <formula1>"Migrate All Robots,Migrate Only Attended Robots,Migrate Only Unattended Robots,Do Not Migrate Robots"</formula1>
     </dataValidation>
@@ -7682,6 +7679,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D479BB45-4D1E-431E-809A-21F50FCFBB69}">
       <formula1>"Migrate All Processes,Do Not Migrate Processes"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{104BC6CC-DA7C-454F-8A65-1A258EE8713F}">
+      <formula1>"Migrate Queue Definitions and New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FF27C-353E-449D-B203-5AEE794FF2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA86F65-02E7-4535-B67C-B4038F478EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Process Migration Policy</t>
+  </si>
+  <si>
+    <t>Trigger Migration Policy</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -509,13 +544,6 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -925,15 +953,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -943,12 +971,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,26 +986,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:H201" totalsRowShown="0">
-  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5607,7 +5636,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5622,12 +5651,12 @@
     <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.08984375" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="52" customWidth="1"/>
     <col min="10" max="10" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5647,13 +5676,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -5661,9 +5693,10 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="19"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5671,9 +5704,10 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="19"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5681,9 +5715,10 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="19"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5691,9 +5726,10 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="19"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5701,9 +5737,10 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="19"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5711,9 +5748,10 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="19"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5721,9 +5759,10 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="19"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5731,9 +5770,10 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="19"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5741,9 +5781,10 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="19"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="19"/>
@@ -5751,9 +5792,10 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="19"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="19"/>
@@ -5761,9 +5803,10 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="19"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="19"/>
@@ -5771,9 +5814,10 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="19"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="19"/>
@@ -5781,9 +5825,10 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="19"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="19"/>
@@ -5791,9 +5836,10 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="19"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="19"/>
@@ -5801,9 +5847,10 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="19"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="19"/>
@@ -5811,9 +5858,10 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="19"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="19"/>
@@ -5821,9 +5869,10 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="19"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="19"/>
@@ -5831,9 +5880,10 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="19"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="19"/>
@@ -5841,9 +5891,10 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="19"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="19"/>
@@ -5851,9 +5902,10 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="19"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="19"/>
@@ -5861,9 +5913,10 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="19"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="19"/>
@@ -5871,9 +5924,10 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="19"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="19"/>
@@ -5881,9 +5935,10 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="19"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="19"/>
@@ -5891,9 +5946,10 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="19"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="19"/>
@@ -5901,9 +5957,10 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="19"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="19"/>
@@ -5911,9 +5968,10 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="19"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="19"/>
@@ -5921,9 +5979,10 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="19"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="19"/>
@@ -5931,9 +5990,10 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="19"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="19"/>
@@ -5941,9 +6001,10 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="19"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="19"/>
@@ -5951,9 +6012,10 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H31" s="19"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="19"/>
@@ -5961,9 +6023,10 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="19"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="19"/>
@@ -5971,9 +6034,10 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="19"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="19"/>
@@ -5981,9 +6045,10 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="19"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="19"/>
@@ -5991,9 +6056,10 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="19"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="19"/>
@@ -6001,9 +6067,10 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="19"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="19"/>
@@ -6011,9 +6078,10 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="19"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="19"/>
@@ -6021,9 +6089,10 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="19"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="19"/>
@@ -6031,9 +6100,10 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="19"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="19"/>
@@ -6041,9 +6111,10 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="19"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="19"/>
@@ -6051,9 +6122,10 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="19"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="19"/>
@@ -6061,9 +6133,10 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="19"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="19"/>
@@ -6071,9 +6144,10 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="19"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="19"/>
@@ -6081,9 +6155,10 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="19"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="19"/>
@@ -6091,9 +6166,10 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="19"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="19"/>
@@ -6101,9 +6177,10 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="19"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="19"/>
@@ -6111,9 +6188,10 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="19"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="19"/>
@@ -6121,9 +6199,10 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="19"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="19"/>
@@ -6131,9 +6210,10 @@
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="19"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="19"/>
@@ -6141,9 +6221,10 @@
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H50" s="19"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="19"/>
@@ -6151,9 +6232,10 @@
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="19"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="19"/>
@@ -6161,9 +6243,10 @@
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" s="19"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="19"/>
@@ -6171,9 +6254,10 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" s="19"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="19"/>
@@ -6181,9 +6265,10 @@
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="19"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="19"/>
@@ -6191,9 +6276,10 @@
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H55" s="19"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="19"/>
@@ -6201,9 +6287,10 @@
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="19"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="19"/>
@@ -6211,9 +6298,10 @@
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="19"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="19"/>
@@ -6221,9 +6309,10 @@
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H58" s="19"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="19"/>
@@ -6231,9 +6320,10 @@
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H59" s="19"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="19"/>
@@ -6241,9 +6331,10 @@
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" s="19"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="19"/>
@@ -6251,9 +6342,10 @@
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="19"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="19"/>
@@ -6261,9 +6353,10 @@
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H62" s="19"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="19"/>
@@ -6271,9 +6364,10 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="19"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="19"/>
@@ -6281,9 +6375,10 @@
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="19"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="19"/>
@@ -6291,9 +6386,10 @@
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="19"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="19"/>
@@ -6301,9 +6397,10 @@
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="19"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="19"/>
@@ -6311,9 +6408,10 @@
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="19"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="19"/>
@@ -6321,9 +6419,10 @@
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="19"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="19"/>
@@ -6331,9 +6430,10 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="19"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="19"/>
@@ -6341,9 +6441,10 @@
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="19"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="19"/>
@@ -6351,9 +6452,10 @@
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="19"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="19"/>
@@ -6361,9 +6463,10 @@
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="19"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="19"/>
@@ -6371,9 +6474,10 @@
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="19"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="19"/>
@@ -6381,9 +6485,10 @@
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="19"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="19"/>
@@ -6391,9 +6496,10 @@
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" s="19"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="19"/>
@@ -6401,9 +6507,10 @@
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="19"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="8"/>
       <c r="C77" s="19"/>
@@ -6411,9 +6518,10 @@
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="19"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="19"/>
@@ -6421,9 +6529,10 @@
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H78" s="19"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="19"/>
@@ -6431,9 +6540,10 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="19"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="19"/>
@@ -6441,9 +6551,10 @@
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H80" s="19"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="19"/>
@@ -6451,9 +6562,10 @@
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H81" s="19"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="19"/>
@@ -6461,9 +6573,10 @@
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H82" s="19"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="19"/>
@@ -6471,9 +6584,10 @@
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H83" s="19"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="19"/>
@@ -6481,9 +6595,10 @@
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H84" s="19"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="19"/>
@@ -6491,9 +6606,10 @@
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="19"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="19"/>
@@ -6501,9 +6617,10 @@
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="19"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="19"/>
@@ -6511,9 +6628,10 @@
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H87" s="19"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="19"/>
@@ -6521,9 +6639,10 @@
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H88" s="19"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="19"/>
@@ -6531,9 +6650,10 @@
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H89" s="19"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="19"/>
@@ -6541,9 +6661,10 @@
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H90" s="19"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="19"/>
@@ -6551,9 +6672,10 @@
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H91" s="19"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="19"/>
@@ -6561,9 +6683,10 @@
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H92" s="19"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="19"/>
@@ -6571,9 +6694,10 @@
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" s="19"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="19"/>
@@ -6581,9 +6705,10 @@
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="19"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="19"/>
@@ -6591,9 +6716,10 @@
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H95" s="19"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="19"/>
@@ -6601,9 +6727,10 @@
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="19"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="19"/>
@@ -6611,9 +6738,10 @@
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="19"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="19"/>
@@ -6621,9 +6749,10 @@
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="19"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="19"/>
@@ -6631,9 +6760,10 @@
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" s="19"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="19"/>
@@ -6641,9 +6771,10 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" s="19"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="19"/>
@@ -6651,9 +6782,10 @@
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H101" s="19"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="19"/>
@@ -6661,9 +6793,10 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H102" s="19"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="19"/>
@@ -6671,9 +6804,10 @@
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H103" s="19"/>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="19"/>
@@ -6681,9 +6815,10 @@
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H104" s="19"/>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="19"/>
@@ -6691,9 +6826,10 @@
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H105" s="19"/>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="19"/>
@@ -6701,9 +6837,10 @@
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H106" s="19"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="19"/>
@@ -6711,9 +6848,10 @@
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H107" s="19"/>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="19"/>
@@ -6721,9 +6859,10 @@
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H108" s="19"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="19"/>
@@ -6731,9 +6870,10 @@
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H109" s="19"/>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="19"/>
@@ -6741,9 +6881,10 @@
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H110" s="19"/>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="19"/>
@@ -6751,9 +6892,10 @@
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H111" s="19"/>
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="19"/>
@@ -6761,9 +6903,10 @@
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H112" s="19"/>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="19"/>
@@ -6771,9 +6914,10 @@
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H113" s="19"/>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="19"/>
@@ -6781,9 +6925,10 @@
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H114" s="19"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="19"/>
@@ -6791,9 +6936,10 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H115" s="19"/>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="19"/>
@@ -6801,9 +6947,10 @@
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H116" s="19"/>
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="19"/>
@@ -6811,9 +6958,10 @@
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H117" s="19"/>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="19"/>
@@ -6821,9 +6969,10 @@
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H118" s="19"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="19"/>
@@ -6831,9 +6980,10 @@
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H119" s="19"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="19"/>
@@ -6841,9 +6991,10 @@
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H120" s="19"/>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="19"/>
@@ -6851,9 +7002,10 @@
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H121" s="19"/>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="19"/>
@@ -6861,9 +7013,10 @@
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H122" s="19"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="19"/>
@@ -6871,9 +7024,10 @@
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H123" s="19"/>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="19"/>
@@ -6881,9 +7035,10 @@
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H124" s="19"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="19"/>
@@ -6891,9 +7046,10 @@
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H125" s="19"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="19"/>
@@ -6901,9 +7057,10 @@
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H126" s="19"/>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="19"/>
@@ -6911,9 +7068,10 @@
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H127" s="19"/>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="19"/>
@@ -6921,9 +7079,10 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H128" s="19"/>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="19"/>
@@ -6931,9 +7090,10 @@
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H129" s="19"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="19"/>
@@ -6941,9 +7101,10 @@
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H130" s="19"/>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="19"/>
@@ -6951,9 +7112,10 @@
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H131" s="19"/>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="19"/>
@@ -6961,9 +7123,10 @@
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H132" s="19"/>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="19"/>
@@ -6971,9 +7134,10 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H133" s="19"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="19"/>
@@ -6981,9 +7145,10 @@
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H134" s="19"/>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="19"/>
@@ -6991,9 +7156,10 @@
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H135" s="19"/>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="19"/>
@@ -7001,9 +7167,10 @@
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H136" s="19"/>
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="19"/>
@@ -7011,9 +7178,10 @@
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H137" s="19"/>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="19"/>
@@ -7021,9 +7189,10 @@
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H138" s="19"/>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="19"/>
@@ -7031,9 +7200,10 @@
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H139" s="19"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="19"/>
@@ -7041,9 +7211,10 @@
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H140" s="19"/>
+      <c r="I140" s="4"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="19"/>
@@ -7051,9 +7222,10 @@
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H141" s="19"/>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="19"/>
@@ -7061,9 +7233,10 @@
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H142" s="19"/>
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="19"/>
@@ -7071,9 +7244,10 @@
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H143" s="19"/>
+      <c r="I143" s="4"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="19"/>
@@ -7081,9 +7255,10 @@
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H144" s="19"/>
+      <c r="I144" s="4"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="19"/>
@@ -7091,9 +7266,10 @@
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H145" s="19"/>
+      <c r="I145" s="4"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="19"/>
@@ -7101,9 +7277,10 @@
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H146" s="19"/>
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="19"/>
@@ -7111,9 +7288,10 @@
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H147" s="19"/>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="19"/>
@@ -7121,9 +7299,10 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H148" s="19"/>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="19"/>
@@ -7131,9 +7310,10 @@
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H149" s="19"/>
+      <c r="I149" s="4"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="19"/>
@@ -7141,9 +7321,10 @@
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H150" s="19"/>
+      <c r="I150" s="4"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="19"/>
@@ -7151,9 +7332,10 @@
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H151" s="19"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="19"/>
@@ -7161,9 +7343,10 @@
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H152" s="19"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="19"/>
@@ -7171,9 +7354,10 @@
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H153" s="19"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="19"/>
@@ -7181,9 +7365,10 @@
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H154" s="19"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="19"/>
@@ -7191,9 +7376,10 @@
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H155" s="19"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="19"/>
@@ -7201,9 +7387,10 @@
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H156" s="19"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="19"/>
@@ -7211,9 +7398,10 @@
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H157" s="19"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="19"/>
@@ -7221,9 +7409,10 @@
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H158" s="19"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="19"/>
@@ -7231,9 +7420,10 @@
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H159" s="19"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="19"/>
@@ -7241,9 +7431,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H160" s="19"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="19"/>
@@ -7251,9 +7442,10 @@
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H161" s="19"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="19"/>
@@ -7261,9 +7453,10 @@
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H162" s="19"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="19"/>
@@ -7271,9 +7464,10 @@
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H163" s="19"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="19"/>
@@ -7281,9 +7475,10 @@
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H164" s="19"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="19"/>
@@ -7291,9 +7486,10 @@
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H165" s="19"/>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="19"/>
@@ -7301,9 +7497,10 @@
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H166" s="19"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="19"/>
@@ -7311,9 +7508,10 @@
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H167" s="19"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="19"/>
@@ -7321,9 +7519,10 @@
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H168" s="19"/>
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="19"/>
@@ -7331,9 +7530,10 @@
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H169" s="19"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="19"/>
@@ -7341,9 +7541,10 @@
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H170" s="19"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="19"/>
@@ -7351,9 +7552,10 @@
       <c r="E171" s="19"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
-      <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H171" s="19"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="19"/>
@@ -7361,9 +7563,10 @@
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="4"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H172" s="19"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="19"/>
@@ -7371,9 +7574,10 @@
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H173" s="19"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="19"/>
@@ -7381,9 +7585,10 @@
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="4"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H174" s="19"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="19"/>
@@ -7391,9 +7596,10 @@
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H175" s="19"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="19"/>
@@ -7401,9 +7607,10 @@
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H176" s="19"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="19"/>
@@ -7411,9 +7618,10 @@
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
-      <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H177" s="19"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="19"/>
@@ -7421,9 +7629,10 @@
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
-      <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H178" s="19"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="19"/>
@@ -7431,9 +7640,10 @@
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="4"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H179" s="19"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="19"/>
@@ -7441,9 +7651,10 @@
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
-      <c r="H180" s="4"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H180" s="19"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="19"/>
@@ -7451,9 +7662,10 @@
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
-      <c r="H181" s="4"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H181" s="19"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="19"/>
@@ -7461,9 +7673,10 @@
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
-      <c r="H182" s="4"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H182" s="19"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="19"/>
@@ -7471,9 +7684,10 @@
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
-      <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H183" s="19"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="19"/>
@@ -7481,9 +7695,10 @@
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
-      <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H184" s="19"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="19"/>
@@ -7491,9 +7706,10 @@
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
-      <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H185" s="19"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="19"/>
@@ -7501,9 +7717,10 @@
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
-      <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H186" s="19"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="19"/>
@@ -7511,9 +7728,10 @@
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
-      <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H187" s="19"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="19"/>
@@ -7521,9 +7739,10 @@
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H188" s="19"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="19"/>
@@ -7531,9 +7750,10 @@
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
-      <c r="H189" s="4"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H189" s="19"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="19"/>
@@ -7541,9 +7761,10 @@
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
-      <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H190" s="19"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="19"/>
@@ -7551,9 +7772,10 @@
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
-      <c r="H191" s="4"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H191" s="19"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="19"/>
@@ -7561,9 +7783,10 @@
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
-      <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H192" s="19"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="19"/>
@@ -7571,9 +7794,10 @@
       <c r="E193" s="19"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
-      <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H193" s="19"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="19"/>
@@ -7581,9 +7805,10 @@
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
-      <c r="H194" s="4"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H194" s="19"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="19"/>
@@ -7591,9 +7816,10 @@
       <c r="E195" s="19"/>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
-      <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H195" s="19"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="19"/>
@@ -7601,9 +7827,10 @@
       <c r="E196" s="19"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H196" s="19"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="19"/>
@@ -7611,9 +7838,10 @@
       <c r="E197" s="19"/>
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
-      <c r="H197" s="4"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H197" s="19"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="19"/>
@@ -7621,9 +7849,10 @@
       <c r="E198" s="19"/>
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
-      <c r="H198" s="4"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H198" s="19"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="19"/>
@@ -7631,9 +7860,10 @@
       <c r="E199" s="19"/>
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
-      <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H199" s="19"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="19"/>
@@ -7641,9 +7871,10 @@
       <c r="E200" s="19"/>
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
-      <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H200" s="19"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
       <c r="B201" s="22"/>
       <c r="C201" s="19"/>
@@ -7651,12 +7882,13 @@
       <c r="E201" s="19"/>
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
-      <c r="H201" s="4"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G201">
-    <cfRule type="expression" dxfId="8" priority="3">
+  <conditionalFormatting sqref="C2:H201">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7664,11 +7896,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
       <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576 G2:G201" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576 H2:H201" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
       <formula1>"Migrate All Robots,Migrate Only Attended Robots,Migrate Only Unattended Robots,Do Not Migrate Robots"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G202:G1048576" xr:uid="{BA962542-8590-40D3-A410-AD2E2D8342FA}">
-      <formula1>"Migrate All Users,Do Not Migrate Users"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{63504AD6-A66D-4F41-A4B6-8F8EC15412E5}">
       <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders,Do Not Migrate Environments And Processes"</formula1>
@@ -7682,6 +7911,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{104BC6CC-DA7C-454F-8A65-1A258EE8713F}">
       <formula1>"Migrate Queue Definitions and New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B7D5E4C5-DEB5-4139-B007-70A801A949D8}">
+      <formula1>"Migrate All Triggers,Do Not Migrate Triggers"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA86F65-02E7-4535-B67C-B4038F478EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF731B9-15B0-4118-9997-5590D7918764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,6 +308,31 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -327,38 +352,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -544,6 +537,13 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -998,15 +998,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,17 +1281,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="13"/>
@@ -1319,7 +1319,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1327,7 +1327,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1335,7 +1335,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1343,7 +1343,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1351,7 +1351,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1359,7 +1359,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1367,7 +1367,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1375,7 +1375,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1383,7 +1383,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -1391,7 +1391,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -1399,7 +1399,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -1407,7 +1407,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -1415,7 +1415,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -1423,7 +1423,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -1431,7 +1431,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1439,7 +1439,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -1447,7 +1447,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -1455,7 +1455,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -1463,7 +1463,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -1471,7 +1471,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
@@ -1479,7 +1479,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -1487,7 +1487,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -1495,7 +1495,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -1503,7 +1503,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -1511,7 +1511,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -1519,7 +1519,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -1527,7 +1527,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -1535,7 +1535,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
@@ -1543,7 +1543,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -1551,7 +1551,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -1559,7 +1559,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -1567,7 +1567,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -1575,7 +1575,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -1583,7 +1583,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -1591,7 +1591,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -1599,7 +1599,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -1607,7 +1607,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -1615,7 +1615,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -1623,7 +1623,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
@@ -1631,7 +1631,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -1639,7 +1639,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -1647,7 +1647,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -1655,7 +1655,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -1663,7 +1663,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -1671,7 +1671,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -1679,7 +1679,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -1687,7 +1687,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -1695,7 +1695,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -1703,7 +1703,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -1711,7 +1711,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -1719,7 +1719,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
@@ -1727,7 +1727,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
@@ -1735,7 +1735,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
@@ -1743,7 +1743,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
@@ -1751,7 +1751,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
@@ -1759,7 +1759,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
@@ -1767,7 +1767,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="3"/>
@@ -1775,7 +1775,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="3"/>
@@ -1783,7 +1783,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="3"/>
@@ -1791,7 +1791,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
@@ -1799,7 +1799,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3"/>
@@ -1807,7 +1807,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
@@ -1815,7 +1815,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
@@ -1823,7 +1823,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
@@ -1831,7 +1831,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
@@ -1839,7 +1839,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
@@ -1847,7 +1847,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
@@ -1855,7 +1855,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="3"/>
@@ -1863,7 +1863,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="3"/>
@@ -1871,7 +1871,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="3"/>
@@ -1879,7 +1879,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="3"/>
@@ -1887,7 +1887,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -1895,7 +1895,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -1903,7 +1903,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="3"/>
@@ -1911,7 +1911,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="3"/>
@@ -1919,7 +1919,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="3"/>
@@ -1927,7 +1927,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
@@ -1935,7 +1935,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="3"/>
@@ -1943,7 +1943,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="3"/>
@@ -1951,7 +1951,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="3"/>
@@ -1959,7 +1959,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
@@ -1967,7 +1967,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
@@ -1975,7 +1975,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="3"/>
@@ -1983,7 +1983,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="3"/>
@@ -1991,7 +1991,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="3"/>
@@ -1999,7 +1999,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="3"/>
@@ -2007,7 +2007,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="3"/>
@@ -2015,7 +2015,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="3"/>
@@ -2023,7 +2023,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="3"/>
@@ -2031,7 +2031,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="3"/>
@@ -2039,7 +2039,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="3"/>
@@ -2047,7 +2047,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
@@ -2055,7 +2055,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="3"/>
@@ -2063,7 +2063,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="3"/>
@@ -2071,7 +2071,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -2079,7 +2079,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -2087,7 +2087,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -2095,7 +2095,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -2103,7 +2103,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -2111,7 +2111,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -2119,7 +2119,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -2127,7 +2127,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -2135,7 +2135,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -2143,7 +2143,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -2151,7 +2151,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -2159,7 +2159,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -2167,7 +2167,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -2175,7 +2175,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -2183,7 +2183,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -2191,7 +2191,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -2199,7 +2199,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="3"/>
@@ -2207,7 +2207,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="3"/>
@@ -2215,7 +2215,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="3"/>
@@ -2223,7 +2223,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="3"/>
@@ -2231,7 +2231,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="3"/>
@@ -2239,7 +2239,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="3"/>
@@ -2247,7 +2247,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="3"/>
@@ -2255,7 +2255,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="3"/>
@@ -2263,7 +2263,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="3"/>
@@ -2271,7 +2271,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="3"/>
@@ -2279,7 +2279,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="3"/>
@@ -2287,7 +2287,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="3"/>
@@ -2295,7 +2295,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="3"/>
@@ -2303,7 +2303,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
@@ -2311,7 +2311,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="3"/>
@@ -2319,7 +2319,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="3"/>
@@ -2327,7 +2327,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="3"/>
@@ -2335,7 +2335,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="3"/>
@@ -2343,7 +2343,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="3"/>
@@ -2351,7 +2351,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="3"/>
@@ -2359,7 +2359,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="3"/>
@@ -2367,7 +2367,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="3"/>
@@ -2375,7 +2375,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -2383,7 +2383,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="3"/>
@@ -2391,7 +2391,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="3"/>
@@ -2399,7 +2399,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="3"/>
@@ -2407,7 +2407,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="3"/>
@@ -2415,7 +2415,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="3"/>
@@ -2423,7 +2423,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="3"/>
@@ -2431,7 +2431,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="3"/>
@@ -2439,7 +2439,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="3"/>
@@ -2447,7 +2447,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="3"/>
@@ -2455,7 +2455,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="3"/>
@@ -2463,7 +2463,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="3"/>
@@ -2471,7 +2471,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="3"/>
@@ -2479,7 +2479,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="3"/>
@@ -2487,7 +2487,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="3"/>
@@ -2495,7 +2495,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="3"/>
@@ -2503,7 +2503,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="3"/>
@@ -2511,7 +2511,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="3"/>
@@ -2519,7 +2519,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="3"/>
@@ -2527,7 +2527,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="3"/>
@@ -2535,7 +2535,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="3"/>
@@ -2543,7 +2543,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="3"/>
@@ -2551,7 +2551,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="3"/>
@@ -2559,7 +2559,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="3"/>
@@ -2567,7 +2567,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="3"/>
@@ -2575,7 +2575,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="3"/>
@@ -2583,7 +2583,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="3"/>
@@ -2591,7 +2591,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="3"/>
@@ -2599,7 +2599,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="3"/>
@@ -2607,7 +2607,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="3"/>
@@ -2615,7 +2615,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="3"/>
@@ -2623,7 +2623,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="3"/>
@@ -2631,7 +2631,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="3"/>
@@ -2639,7 +2639,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="3"/>
@@ -2647,7 +2647,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="3"/>
@@ -2655,7 +2655,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="3"/>
@@ -2663,7 +2663,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="3"/>
@@ -2671,7 +2671,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="3"/>
@@ -2679,7 +2679,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="3"/>
@@ -2687,7 +2687,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="3"/>
@@ -2695,7 +2695,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
@@ -2703,7 +2703,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="3"/>
@@ -2711,7 +2711,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="3"/>
@@ -2719,7 +2719,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="3"/>
@@ -2727,7 +2727,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="3"/>
@@ -2735,7 +2735,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="3"/>
@@ -2743,7 +2743,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="3"/>
@@ -2751,7 +2751,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="3"/>
@@ -2759,7 +2759,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="3"/>
@@ -2767,7 +2767,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="3"/>
@@ -2775,7 +2775,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="3"/>
@@ -2783,7 +2783,7 @@
       <c r="E185" s="3"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="3"/>
@@ -2791,7 +2791,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="3"/>
@@ -2799,7 +2799,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="3"/>
@@ -2807,7 +2807,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="3"/>
@@ -2815,7 +2815,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="3"/>
@@ -2823,7 +2823,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="3"/>
@@ -2831,7 +2831,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="3"/>
@@ -2839,7 +2839,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="3"/>
@@ -2847,7 +2847,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="3"/>
@@ -2855,7 +2855,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="3"/>
@@ -2863,7 +2863,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="3"/>
@@ -2871,7 +2871,7 @@
       <c r="E196" s="3"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="3"/>
@@ -2879,7 +2879,7 @@
       <c r="E197" s="3"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="3"/>
@@ -2887,7 +2887,7 @@
       <c r="E198" s="3"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="14"/>
       <c r="C199" s="5"/>
@@ -2895,7 +2895,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="3"/>
@@ -2903,7 +2903,7 @@
       <c r="E200" s="3"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -2943,17 +2943,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="17"/>
       <c r="C2" s="21"/>
@@ -2981,7 +2981,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="19"/>
@@ -2989,7 +2989,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="19"/>
@@ -2997,7 +2997,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="19"/>
@@ -3005,7 +3005,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="19"/>
@@ -3013,7 +3013,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="19"/>
@@ -3021,7 +3021,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="19"/>
@@ -3029,7 +3029,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="19"/>
@@ -3037,7 +3037,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="19"/>
@@ -3045,7 +3045,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="19"/>
@@ -3053,7 +3053,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="19"/>
@@ -3061,7 +3061,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="19"/>
@@ -3069,7 +3069,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="19"/>
@@ -3077,7 +3077,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="19"/>
@@ -3085,7 +3085,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="19"/>
@@ -3093,7 +3093,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="19"/>
@@ -3101,7 +3101,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="19"/>
@@ -3109,7 +3109,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="19"/>
@@ -3117,7 +3117,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="19"/>
@@ -3125,7 +3125,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="19"/>
@@ -3133,7 +3133,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="19"/>
@@ -3141,7 +3141,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
@@ -3149,7 +3149,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="19"/>
@@ -3157,7 +3157,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="19"/>
@@ -3165,7 +3165,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="19"/>
@@ -3173,7 +3173,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
@@ -3181,7 +3181,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
@@ -3189,7 +3189,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="19"/>
@@ -3197,7 +3197,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="19"/>
@@ -3205,7 +3205,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -3213,7 +3213,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -3221,7 +3221,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="19"/>
@@ -3229,7 +3229,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="19"/>
@@ -3237,7 +3237,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
@@ -3245,7 +3245,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="19"/>
@@ -3253,7 +3253,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="19"/>
@@ -3261,7 +3261,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="19"/>
@@ -3269,7 +3269,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="19"/>
@@ -3277,7 +3277,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="19"/>
@@ -3285,7 +3285,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="19"/>
@@ -3293,7 +3293,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="19"/>
@@ -3301,7 +3301,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="19"/>
@@ -3309,7 +3309,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="19"/>
@@ -3317,7 +3317,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="19"/>
@@ -3325,7 +3325,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="19"/>
@@ -3333,7 +3333,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="19"/>
@@ -3341,7 +3341,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
@@ -3349,7 +3349,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
@@ -3357,7 +3357,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
@@ -3365,7 +3365,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="19"/>
@@ -3373,7 +3373,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="19"/>
@@ -3381,7 +3381,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="19"/>
@@ -3389,7 +3389,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="19"/>
@@ -3397,7 +3397,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
@@ -3405,7 +3405,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="19"/>
@@ -3413,7 +3413,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="19"/>
@@ -3421,7 +3421,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="19"/>
@@ -3429,7 +3429,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="19"/>
@@ -3437,7 +3437,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="19"/>
@@ -3445,7 +3445,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="19"/>
@@ -3453,7 +3453,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="19"/>
@@ -3461,7 +3461,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="19"/>
@@ -3469,7 +3469,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="19"/>
@@ -3477,7 +3477,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="19"/>
@@ -3485,7 +3485,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="19"/>
@@ -3493,7 +3493,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="19"/>
@@ -3501,7 +3501,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="19"/>
@@ -3509,7 +3509,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="19"/>
@@ -3517,7 +3517,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="19"/>
@@ -3525,7 +3525,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="19"/>
@@ -3533,7 +3533,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="19"/>
@@ -3541,7 +3541,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="19"/>
@@ -3549,7 +3549,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="19"/>
@@ -3557,7 +3557,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="19"/>
@@ -3565,7 +3565,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="19"/>
@@ -3573,7 +3573,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="19"/>
@@ -3581,7 +3581,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="19"/>
@@ -3589,7 +3589,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="19"/>
@@ -3597,7 +3597,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="19"/>
@@ -3605,7 +3605,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="19"/>
@@ -3613,7 +3613,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="19"/>
@@ -3621,7 +3621,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="19"/>
@@ -3629,7 +3629,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="19"/>
@@ -3637,7 +3637,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="19"/>
@@ -3645,7 +3645,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="19"/>
@@ -3653,7 +3653,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="19"/>
@@ -3661,7 +3661,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="19"/>
@@ -3669,7 +3669,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="19"/>
@@ -3677,7 +3677,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="19"/>
@@ -3685,7 +3685,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="19"/>
@@ -3693,7 +3693,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="19"/>
@@ -3701,7 +3701,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="19"/>
@@ -3709,7 +3709,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="19"/>
@@ -3717,7 +3717,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="19"/>
@@ -3725,7 +3725,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="19"/>
@@ -3733,7 +3733,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="19"/>
@@ -3741,7 +3741,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="19"/>
@@ -3749,7 +3749,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="19"/>
@@ -3757,7 +3757,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="19"/>
@@ -3765,7 +3765,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="19"/>
@@ -3773,7 +3773,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="19"/>
@@ -3781,7 +3781,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="19"/>
@@ -3789,7 +3789,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="19"/>
@@ -3797,7 +3797,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="19"/>
@@ -3805,7 +3805,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="19"/>
@@ -3813,7 +3813,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="19"/>
@@ -3821,7 +3821,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="19"/>
@@ -3829,7 +3829,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="19"/>
@@ -3837,7 +3837,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="19"/>
@@ -3845,7 +3845,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="19"/>
@@ -3853,7 +3853,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="19"/>
@@ -3861,7 +3861,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="19"/>
@@ -3869,7 +3869,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="19"/>
@@ -3877,7 +3877,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="19"/>
@@ -3885,7 +3885,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="19"/>
@@ -3893,7 +3893,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="19"/>
@@ -3901,7 +3901,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="19"/>
@@ -3909,7 +3909,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="19"/>
@@ -3917,7 +3917,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="19"/>
@@ -3925,7 +3925,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="19"/>
@@ -3933,7 +3933,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="19"/>
@@ -3941,7 +3941,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="19"/>
@@ -3949,7 +3949,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="19"/>
@@ -3957,7 +3957,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="19"/>
@@ -3965,7 +3965,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="19"/>
@@ -3973,7 +3973,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="19"/>
@@ -3981,7 +3981,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="19"/>
@@ -3989,7 +3989,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="19"/>
@@ -3997,7 +3997,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="19"/>
@@ -4005,7 +4005,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="19"/>
@@ -4013,7 +4013,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="19"/>
@@ -4021,7 +4021,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="19"/>
@@ -4029,7 +4029,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="19"/>
@@ -4037,7 +4037,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="19"/>
@@ -4045,7 +4045,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="19"/>
@@ -4053,7 +4053,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="19"/>
@@ -4061,7 +4061,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="19"/>
@@ -4069,7 +4069,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="19"/>
@@ -4077,7 +4077,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="19"/>
@@ -4085,7 +4085,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="19"/>
@@ -4093,7 +4093,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="19"/>
@@ -4101,7 +4101,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -4109,7 +4109,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="19"/>
@@ -4117,7 +4117,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="19"/>
@@ -4125,7 +4125,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="19"/>
@@ -4133,7 +4133,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="19"/>
@@ -4141,7 +4141,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="19"/>
@@ -4149,7 +4149,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="19"/>
@@ -4157,7 +4157,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="19"/>
@@ -4165,7 +4165,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="19"/>
@@ -4173,7 +4173,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -4181,7 +4181,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="19"/>
@@ -4189,7 +4189,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="19"/>
@@ -4197,7 +4197,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="19"/>
@@ -4205,7 +4205,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="19"/>
@@ -4213,7 +4213,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="19"/>
@@ -4221,7 +4221,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="19"/>
@@ -4229,7 +4229,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="19"/>
@@ -4237,7 +4237,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="19"/>
@@ -4245,7 +4245,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="19"/>
@@ -4253,7 +4253,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="19"/>
@@ -4261,7 +4261,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="19"/>
@@ -4269,7 +4269,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="19"/>
@@ -4277,7 +4277,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="19"/>
@@ -4285,7 +4285,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="19"/>
@@ -4293,7 +4293,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="19"/>
@@ -4301,7 +4301,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="19"/>
@@ -4309,7 +4309,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="19"/>
@@ -4317,7 +4317,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="19"/>
@@ -4325,7 +4325,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="19"/>
@@ -4333,7 +4333,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="19"/>
@@ -4341,7 +4341,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="19"/>
@@ -4349,7 +4349,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="19"/>
@@ -4357,7 +4357,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="19"/>
@@ -4365,7 +4365,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="19"/>
@@ -4373,7 +4373,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="19"/>
@@ -4381,7 +4381,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="19"/>
@@ -4389,7 +4389,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="19"/>
@@ -4397,7 +4397,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="19"/>
@@ -4405,7 +4405,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="19"/>
@@ -4413,7 +4413,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="19"/>
@@ -4421,7 +4421,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="19"/>
@@ -4429,7 +4429,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="19"/>
@@ -4437,7 +4437,7 @@
       <c r="E184" s="3"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="19"/>
@@ -4445,7 +4445,7 @@
       <c r="E185" s="3"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="19"/>
@@ -4453,7 +4453,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="19"/>
@@ -4461,7 +4461,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="19"/>
@@ -4469,7 +4469,7 @@
       <c r="E188" s="3"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="19"/>
@@ -4477,7 +4477,7 @@
       <c r="E189" s="3"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="19"/>
@@ -4485,7 +4485,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="19"/>
@@ -4493,7 +4493,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="19"/>
@@ -4501,7 +4501,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="19"/>
@@ -4509,7 +4509,7 @@
       <c r="E193" s="3"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="19"/>
@@ -4517,7 +4517,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="19"/>
@@ -4525,7 +4525,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="19"/>
@@ -4533,7 +4533,7 @@
       <c r="E196" s="3"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="19"/>
@@ -4541,7 +4541,7 @@
       <c r="E197" s="3"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="19"/>
@@ -4549,7 +4549,7 @@
       <c r="E198" s="3"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="19"/>
@@ -4557,7 +4557,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="19"/>
@@ -4565,7 +4565,7 @@
       <c r="E200" s="3"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="18"/>
       <c r="C201" s="20"/>
@@ -4602,14 +4602,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4620,1002 +4620,1002 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="19"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="19"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="19"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="19"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="19"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="19"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="19"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="19"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="19"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="19"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="19"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="19"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="19"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="19"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="19"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="19"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="19"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="19"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="19"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="19"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="19"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="19"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="19"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="19"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="19"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="19"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="19"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="19"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="19"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="19"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="19"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="19"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="19"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="19"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="19"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="19"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="19"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="19"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="19"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="19"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="19"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="19"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="19"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="19"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="19"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="19"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="19"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="19"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="19"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="19"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="19"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="19"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="19"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="19"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="19"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="19"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="19"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="19"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="19"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="19"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="19"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="19"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="19"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="19"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="19"/>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="19"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="19"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="19"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="19"/>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="19"/>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="19"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="19"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="19"/>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="20"/>
       <c r="C201" s="4"/>
@@ -5642,21 +5642,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.85546875" customWidth="1"/>
     <col min="9" max="9" width="52" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -5696,7 +5696,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5707,7 +5707,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5718,7 +5718,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5729,7 +5729,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5740,7 +5740,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5751,7 +5751,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5762,7 +5762,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5773,7 +5773,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5784,7 +5784,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="19"/>
@@ -5795,7 +5795,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="19"/>
@@ -5806,7 +5806,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="19"/>
@@ -5817,7 +5817,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="19"/>
@@ -5828,7 +5828,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="19"/>
@@ -5839,7 +5839,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="19"/>
@@ -5850,7 +5850,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="19"/>
@@ -5861,7 +5861,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="19"/>
@@ -5872,7 +5872,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="19"/>
@@ -5883,7 +5883,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="19"/>
@@ -5894,7 +5894,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="19"/>
@@ -5905,7 +5905,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="19"/>
@@ -5916,7 +5916,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="19"/>
@@ -5927,7 +5927,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="19"/>
@@ -5938,7 +5938,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="19"/>
@@ -5949,7 +5949,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="19"/>
@@ -5960,7 +5960,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="19"/>
@@ -5971,7 +5971,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="19"/>
@@ -5982,7 +5982,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="19"/>
@@ -5993,7 +5993,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="19"/>
@@ -6004,7 +6004,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="19"/>
@@ -6015,7 +6015,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="19"/>
@@ -6026,7 +6026,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="19"/>
@@ -6037,7 +6037,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="19"/>
@@ -6048,7 +6048,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="19"/>
@@ -6059,7 +6059,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="19"/>
@@ -6070,7 +6070,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="19"/>
@@ -6081,7 +6081,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="19"/>
@@ -6092,7 +6092,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="19"/>
@@ -6103,7 +6103,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="19"/>
@@ -6114,7 +6114,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="19"/>
@@ -6125,7 +6125,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="19"/>
@@ -6136,7 +6136,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="19"/>
@@ -6147,7 +6147,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="19"/>
@@ -6158,7 +6158,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="19"/>
@@ -6169,7 +6169,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="19"/>
@@ -6180,7 +6180,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="19"/>
@@ -6191,7 +6191,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="19"/>
@@ -6202,7 +6202,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="19"/>
@@ -6213,7 +6213,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="19"/>
@@ -6224,7 +6224,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="19"/>
@@ -6235,7 +6235,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="19"/>
@@ -6246,7 +6246,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="19"/>
@@ -6257,7 +6257,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="19"/>
@@ -6268,7 +6268,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="19"/>
@@ -6279,7 +6279,7 @@
       <c r="H55" s="19"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="19"/>
@@ -6290,7 +6290,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="19"/>
@@ -6301,7 +6301,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="19"/>
@@ -6312,7 +6312,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="19"/>
@@ -6323,7 +6323,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="19"/>
@@ -6334,7 +6334,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="19"/>
@@ -6345,7 +6345,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="19"/>
@@ -6356,7 +6356,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="19"/>
@@ -6367,7 +6367,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="19"/>
@@ -6378,7 +6378,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="19"/>
@@ -6389,7 +6389,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="19"/>
@@ -6400,7 +6400,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="19"/>
@@ -6411,7 +6411,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="19"/>
@@ -6422,7 +6422,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="19"/>
@@ -6433,7 +6433,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="19"/>
@@ -6444,7 +6444,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="19"/>
@@ -6455,7 +6455,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="19"/>
@@ -6466,7 +6466,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="19"/>
@@ -6477,7 +6477,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="19"/>
@@ -6488,7 +6488,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="19"/>
@@ -6499,7 +6499,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="19"/>
@@ -6510,7 +6510,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8"/>
       <c r="C77" s="19"/>
@@ -6521,7 +6521,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="19"/>
@@ -6532,7 +6532,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="19"/>
@@ -6543,7 +6543,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="19"/>
@@ -6554,7 +6554,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="19"/>
@@ -6565,7 +6565,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="19"/>
@@ -6576,7 +6576,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="19"/>
@@ -6587,7 +6587,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="19"/>
@@ -6598,7 +6598,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="19"/>
@@ -6609,7 +6609,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="19"/>
@@ -6620,7 +6620,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="19"/>
@@ -6631,7 +6631,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="19"/>
@@ -6642,7 +6642,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="19"/>
@@ -6653,7 +6653,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="19"/>
@@ -6664,7 +6664,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="19"/>
@@ -6675,7 +6675,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="19"/>
@@ -6686,7 +6686,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="19"/>
@@ -6697,7 +6697,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="19"/>
@@ -6708,7 +6708,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="19"/>
@@ -6719,7 +6719,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="19"/>
@@ -6730,7 +6730,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="19"/>
@@ -6741,7 +6741,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="19"/>
@@ -6752,7 +6752,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="19"/>
@@ -6763,7 +6763,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="19"/>
@@ -6774,7 +6774,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="19"/>
@@ -6785,7 +6785,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="19"/>
@@ -6796,7 +6796,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="19"/>
@@ -6807,7 +6807,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="19"/>
@@ -6818,7 +6818,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="19"/>
@@ -6829,7 +6829,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="19"/>
@@ -6840,7 +6840,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="19"/>
@@ -6851,7 +6851,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="19"/>
@@ -6862,7 +6862,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="19"/>
@@ -6873,7 +6873,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="19"/>
@@ -6884,7 +6884,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="19"/>
@@ -6895,7 +6895,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="19"/>
@@ -6906,7 +6906,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="19"/>
@@ -6917,7 +6917,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="19"/>
@@ -6928,7 +6928,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="19"/>
@@ -6939,7 +6939,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="19"/>
@@ -6950,7 +6950,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="19"/>
@@ -6961,7 +6961,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="19"/>
@@ -6972,7 +6972,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="19"/>
@@ -6983,7 +6983,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="19"/>
@@ -6994,7 +6994,7 @@
       <c r="H120" s="19"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="19"/>
@@ -7005,7 +7005,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="19"/>
@@ -7016,7 +7016,7 @@
       <c r="H122" s="19"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="19"/>
@@ -7027,7 +7027,7 @@
       <c r="H123" s="19"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="19"/>
@@ -7038,7 +7038,7 @@
       <c r="H124" s="19"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="19"/>
@@ -7049,7 +7049,7 @@
       <c r="H125" s="19"/>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="19"/>
@@ -7060,7 +7060,7 @@
       <c r="H126" s="19"/>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="19"/>
@@ -7071,7 +7071,7 @@
       <c r="H127" s="19"/>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="19"/>
@@ -7082,7 +7082,7 @@
       <c r="H128" s="19"/>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="19"/>
@@ -7093,7 +7093,7 @@
       <c r="H129" s="19"/>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="19"/>
@@ -7104,7 +7104,7 @@
       <c r="H130" s="19"/>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="19"/>
@@ -7115,7 +7115,7 @@
       <c r="H131" s="19"/>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="19"/>
@@ -7126,7 +7126,7 @@
       <c r="H132" s="19"/>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="19"/>
@@ -7137,7 +7137,7 @@
       <c r="H133" s="19"/>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="19"/>
@@ -7148,7 +7148,7 @@
       <c r="H134" s="19"/>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="19"/>
@@ -7159,7 +7159,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="19"/>
@@ -7170,7 +7170,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="19"/>
@@ -7181,7 +7181,7 @@
       <c r="H137" s="19"/>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="19"/>
@@ -7192,7 +7192,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="19"/>
@@ -7203,7 +7203,7 @@
       <c r="H139" s="19"/>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="19"/>
@@ -7214,7 +7214,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="19"/>
@@ -7225,7 +7225,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="19"/>
@@ -7236,7 +7236,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="19"/>
@@ -7247,7 +7247,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="19"/>
@@ -7258,7 +7258,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="19"/>
@@ -7269,7 +7269,7 @@
       <c r="H145" s="19"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="19"/>
@@ -7280,7 +7280,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="19"/>
@@ -7291,7 +7291,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="19"/>
@@ -7302,7 +7302,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="19"/>
@@ -7313,7 +7313,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="19"/>
@@ -7324,7 +7324,7 @@
       <c r="H150" s="19"/>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="19"/>
@@ -7335,7 +7335,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="19"/>
@@ -7346,7 +7346,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="19"/>
@@ -7357,7 +7357,7 @@
       <c r="H153" s="19"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="19"/>
@@ -7368,7 +7368,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="19"/>
@@ -7379,7 +7379,7 @@
       <c r="H155" s="19"/>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="19"/>
@@ -7390,7 +7390,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="19"/>
@@ -7401,7 +7401,7 @@
       <c r="H157" s="19"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="19"/>
@@ -7412,7 +7412,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="19"/>
@@ -7423,7 +7423,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="19"/>
@@ -7434,7 +7434,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="19"/>
@@ -7445,7 +7445,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="19"/>
@@ -7456,7 +7456,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="19"/>
@@ -7467,7 +7467,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="19"/>
@@ -7478,7 +7478,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="19"/>
@@ -7489,7 +7489,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="19"/>
@@ -7500,7 +7500,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="19"/>
@@ -7511,7 +7511,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="19"/>
@@ -7522,7 +7522,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="19"/>
@@ -7533,7 +7533,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="19"/>
@@ -7544,7 +7544,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="4"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="19"/>
@@ -7555,7 +7555,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="19"/>
@@ -7566,7 +7566,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="19"/>
@@ -7577,7 +7577,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="19"/>
@@ -7588,7 +7588,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="19"/>
@@ -7599,7 +7599,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="19"/>
@@ -7610,7 +7610,7 @@
       <c r="H176" s="19"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="19"/>
@@ -7621,7 +7621,7 @@
       <c r="H177" s="19"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="19"/>
@@ -7632,7 +7632,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="19"/>
@@ -7643,7 +7643,7 @@
       <c r="H179" s="19"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="19"/>
@@ -7654,7 +7654,7 @@
       <c r="H180" s="19"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="19"/>
@@ -7665,7 +7665,7 @@
       <c r="H181" s="19"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="19"/>
@@ -7676,7 +7676,7 @@
       <c r="H182" s="19"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="19"/>
@@ -7687,7 +7687,7 @@
       <c r="H183" s="19"/>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="19"/>
@@ -7698,7 +7698,7 @@
       <c r="H184" s="19"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="19"/>
@@ -7709,7 +7709,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="19"/>
@@ -7720,7 +7720,7 @@
       <c r="H186" s="19"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="19"/>
@@ -7731,7 +7731,7 @@
       <c r="H187" s="19"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="19"/>
@@ -7742,7 +7742,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="19"/>
@@ -7753,7 +7753,7 @@
       <c r="H189" s="19"/>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="19"/>
@@ -7764,7 +7764,7 @@
       <c r="H190" s="19"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="19"/>
@@ -7775,7 +7775,7 @@
       <c r="H191" s="19"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="19"/>
@@ -7786,7 +7786,7 @@
       <c r="H192" s="19"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="19"/>
@@ -7797,7 +7797,7 @@
       <c r="H193" s="19"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="19"/>
@@ -7808,7 +7808,7 @@
       <c r="H194" s="19"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="19"/>
@@ -7819,7 +7819,7 @@
       <c r="H195" s="19"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="19"/>
@@ -7830,7 +7830,7 @@
       <c r="H196" s="19"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="19"/>
@@ -7841,7 +7841,7 @@
       <c r="H197" s="19"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="19"/>
@@ -7852,7 +7852,7 @@
       <c r="H198" s="19"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="19"/>
@@ -7863,7 +7863,7 @@
       <c r="H199" s="19"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="19"/>
@@ -7874,7 +7874,7 @@
       <c r="H200" s="19"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="22"/>
       <c r="C201" s="19"/>
@@ -7888,15 +7888,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:H201">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
       <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576 H2:H201" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
       <formula1>"Migrate All Robots,Migrate Only Attended Robots,Migrate Only Unattended Robots,Do Not Migrate Robots"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{63504AD6-A66D-4F41-A4B6-8F8EC15412E5}">
@@ -7914,6 +7914,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B7D5E4C5-DEB5-4139-B007-70A801A949D8}">
       <formula1>"Migrate All Triggers,Do Not Migrate Triggers"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{110F5278-7533-4648-AF4A-678339CF53A1}">
+      <formula1>"Overwrite Execution Settings And Delete Classic Robots,Do Not Overwrite Execution Settings Nor Delete Classic Robots,Do Not Migrate Robots"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF731B9-15B0-4118-9997-5590D7918764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431353AC-00BD-4E83-A7B3-D81FC0E0CE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,10 @@
     <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
-    <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId4"/>
+    <sheet name="Assign User to Folder" sheetId="7" r:id="rId4"/>
+    <sheet name="Unassing User from Folder" sheetId="8" r:id="rId5"/>
+    <sheet name="Add or Remove User Roles" sheetId="9" r:id="rId6"/>
+    <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +87,21 @@
   </si>
   <si>
     <t>Trigger Migration Policy</t>
+  </si>
+  <si>
+    <t>Roles Names</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>Names of Roles to Add</t>
+  </si>
+  <si>
+    <t>Names of Roles to Remove</t>
   </si>
 </sst>
 </file>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -300,11 +318,427 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -537,13 +971,6 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -953,15 +1380,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,12 +1398,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,27 +1413,69 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Modern Folder Name" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="User Type" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Modern Folder Name" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="User Type" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="Modern Folder Name" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="User Type" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="Username" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="Names of Roles to Add" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="Names of Roles to Remove" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="Result" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5635,6 +6104,4340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C6E48-66FD-4873-9A52-E0600ED1714D}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23" style="15" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="23"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="23"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="23"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="23"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="23"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="23"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="23"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="23"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="23"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="23"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="23"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="23"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="23"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="23"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="23"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="23"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="23"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="23"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="23"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="23"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="23"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="23"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="23"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="23"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="23"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="23"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="23"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="23"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="23"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="23"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="23"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="23"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="23"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="23"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="23"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="23"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="23"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="23"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="23"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="23"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="23"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="23"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="23"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="23"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="23"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="23"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="23"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="23"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="23"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="23"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="23"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="23"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="23"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="23"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="23"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="23"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="23"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="23"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="23"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="23"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="23"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="23"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="23"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="23"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="23"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="23"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="23"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="23"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="23"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="23"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="23"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="23"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="23"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="23"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="23"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="23"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="23"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="23"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="23"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="23"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="23"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="23"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="23"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="23"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="23"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="23"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="23"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="23"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="23"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="23"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="23"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="23"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="23"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="23"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="23"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="23"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="23"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="23"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="23"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="23"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="23"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="23"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="23"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="23"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="25"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3210507-5929-4B73-8AEE-1DB9495D0116}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23" style="15" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="23"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="23"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="23"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="23"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="23"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="23"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="23"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="23"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="23"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="23"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="23"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="23"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="23"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="23"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="23"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="23"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="23"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="23"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="23"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="23"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="23"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="23"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="23"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="23"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="23"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="23"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="23"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="23"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="23"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="23"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="23"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="23"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="23"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="23"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="23"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="23"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="23"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="23"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="23"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="23"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="23"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="23"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="23"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="23"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="23"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="23"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="23"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="23"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="23"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="23"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="23"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="23"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="23"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="23"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="23"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="23"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="23"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="23"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="23"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="23"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="23"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="23"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="23"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="23"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="23"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="23"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="23"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="23"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="23"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="23"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="23"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="23"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="23"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="23"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="23"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="23"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="23"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="23"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="23"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="23"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="23"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="23"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="23"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="23"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="23"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="23"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="23"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="23"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="23"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="23"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="23"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="23"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="23"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="23"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="23"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="23"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="23"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="23"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="25"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998AD1E8-D314-41A0-AC10-47539AE918B0}">
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23" style="15" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="23"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="23"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="23"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="23"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="23"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="23"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="23"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="23"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="23"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="23"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="23"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="23"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="23"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="23"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="23"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="23"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="23"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="23"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="23"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="23"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="23"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="23"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="23"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="23"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="23"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="23"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="23"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="23"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="23"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="23"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="23"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="23"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="23"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="23"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="23"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="23"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="23"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="23"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="23"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="23"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="23"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="23"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="23"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="23"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="23"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="23"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="23"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="23"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="23"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="23"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="23"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="23"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="23"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="23"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="23"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="23"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="23"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="23"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="23"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="25"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
   <dimension ref="A1:I201"/>
   <sheetViews>
@@ -7888,7 +12691,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:H201">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431353AC-00BD-4E83-A7B3-D81FC0E0CE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546E353-947E-4EF7-A56F-097E1AB2FEAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Delete" sheetId="2" r:id="rId3"/>
     <sheet name="Assign User to Folder" sheetId="7" r:id="rId4"/>
-    <sheet name="Unassing User from Folder" sheetId="8" r:id="rId5"/>
+    <sheet name="Unassign User from Folder" sheetId="8" r:id="rId5"/>
     <sheet name="Add or Remove User Roles" sheetId="9" r:id="rId6"/>
     <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -342,404 +342,6 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -971,6 +573,404 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1422,42 +1422,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Modern Folder Name" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="User Type" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Modern Folder Name" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="User Type" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Modern Folder Name" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="User Type" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Modern Folder Name" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="User Type" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="Modern Folder Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="User Type" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="Username" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="Names of Roles to Add" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="Names of Roles to Remove" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="Result" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="Modern Folder Name" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="User Type" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="Username" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="Names of Roles to Add" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="Names of Roles to Remove" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="Result" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1467,15 +1467,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12691,7 +12691,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:H201">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66466E-BDF7-4B16-AA09-80EAC2E26EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C7EDA-D939-4088-B624-738DB72B1C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7540,6 +7540,11 @@
       <c r="E201" s="23"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid User Type" error="Please select a supported User Type." sqref="B2:B1048576" xr:uid="{B66C7C5B-04C2-4B5C-B676-0832BAB4EBE0}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8781,6 +8786,11 @@
       <c r="D201" s="23"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid User Type" error="Please select a supported User Type." sqref="B2:B1048576" xr:uid="{08E7BC1A-B9A2-4384-9A19-F2A274B7527D}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10429,6 +10439,11 @@
       <c r="F201" s="23"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid User Type" error="Please select a supported User Type." sqref="B2:B1048576" xr:uid="{5ABC1D76-A9E7-40E7-9C11-4794E3E7E074}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -12695,29 +12710,23 @@
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Asset Migration Policy." sqref="E2:E1048576" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
       <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E202:E1048576" xr:uid="{8FF33DFF-361F-4A2E-A797-115980BFEA48}">
-      <formula1>"Migrate All Robots,Migrate Only Attended Robots,Migrate Only Unattended Robots,Do Not Migrate Robots"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E201" xr:uid="{63504AD6-A66D-4F41-A4B6-8F8EC15412E5}">
-      <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders,Do Not Migrate Environments And Processes"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{761871B1-D5B1-4845-A315-16DA6F2B6705}">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Environment Migration Policy." sqref="B2:B1048576" xr:uid="{761871B1-D5B1-4845-A315-16DA6F2B6705}">
       <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D479BB45-4D1E-431E-809A-21F50FCFBB69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Process Migration Policy." sqref="D2:D1048576" xr:uid="{D479BB45-4D1E-431E-809A-21F50FCFBB69}">
       <formula1>"Migrate All Processes,Do Not Migrate Processes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{104BC6CC-DA7C-454F-8A65-1A258EE8713F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Queue Migration Policy." sqref="F2:F1048576" xr:uid="{104BC6CC-DA7C-454F-8A65-1A258EE8713F}">
       <formula1>"Migrate Queue Definitions and New Items,Migrate Queue Definitions But Not Queue Items,Do Not Migrate Queues"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B7D5E4C5-DEB5-4139-B007-70A801A949D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Trigger Migration Policy." sqref="G2:G1048576" xr:uid="{B7D5E4C5-DEB5-4139-B007-70A801A949D8}">
       <formula1>"Migrate All Triggers,Do Not Migrate Triggers"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{110F5278-7533-4648-AF4A-678339CF53A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Robot Migration Policy." sqref="H2:H1048576" xr:uid="{110F5278-7533-4648-AF4A-678339CF53A1}">
       <formula1>"Overwrite Execution Settings And Delete Classic Robots,Do Not Overwrite Execution Settings Nor Delete Classic Robots,Do Not Migrate Robots"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D8A97-7765-4990-BEF5-7F991E729795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9716823-38AF-447E-892F-3B22671C9A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14414,7 +14414,7 @@
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Asset Migration Policy." sqref="E2:E1048576" xr:uid="{420A1FAB-75A2-4993-B14A-AD369803E7DB}">
-      <formula1>"Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
+      <formula1>"Migrate All Assets,Migrate Non-Credential Assets,Do Not Migrate Assets"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Migration Policy" error="Please select a supported Environment Migration Policy." sqref="B2:B1048576" xr:uid="{761871B1-D5B1-4845-A315-16DA6F2B6705}">
       <formula1>"Environments to Same Modern Folder,Environments to Different Modern Folders"</formula1>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD482E18-6A6C-422F-81EC-19096086AD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D4260-121E-4B05-8435-D3EC40B8BBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D4260-121E-4B05-8435-D3EC40B8BBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CAD52-564D-4041-BE24-F1E5FEA17A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="300" windowWidth="28770" windowHeight="15300" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -5295,7 +5295,7 @@
       <formula1>"Classic,Modern"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Roles Assignment Model" error="Please select a supported Roles Assignment Model." sqref="C2:C1048576" xr:uid="{04E6F3E9-D2CC-4ECB-86C3-A072943BED86}">
-      <formula1>"Custom Roles,Inherit from tenant"</formula1>
+      <formula1>"Custom Roles,Inherit from Tenant"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="E2:E1048576" xr:uid="{8456E178-7F38-40F1-BEAA-6EE3406AB1F5}">
       <formula1>0</formula1>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CAD52-564D-4041-BE24-F1E5FEA17A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1854D-0CE6-4F79-82CF-88BA25F11AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="300" windowWidth="28770" windowHeight="15300" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1854D-0CE6-4F79-82CF-88BA25F11AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A9E325-10E9-40F5-B5D5-406CCE0EFEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Folders.xlsx
+++ b/Workbooks/EN/Folders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6ABA36-8F9D-4103-B30E-534D98B62B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0624FDD3-92EE-4BB9-B086-8B710B53AFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60300" yWindow="285" windowWidth="28800" windowHeight="15465" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="881" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Assign User to Folder" sheetId="7" r:id="rId5"/>
     <sheet name="Unassign User from Folder" sheetId="8" r:id="rId6"/>
     <sheet name="Add or Remove User Roles" sheetId="9" r:id="rId7"/>
-    <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId8"/>
+    <sheet name="Assign or Unassign Machine" sheetId="12" r:id="rId8"/>
+    <sheet name="Migrate Classic to Modern" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +113,14 @@
   </si>
   <si>
     <t>Create New Package Feed</t>
+  </si>
+  <si>
+    <t>Machine Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Assign</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -407,7 +416,122 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -640,13 +764,6 @@
         </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1637,15 +1754,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F201" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Folder ID" totalsRowLabel="Total" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Folder Name" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{09C93F80-4709-492E-B123-1FD1377F6101}" name="Type" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{8B6D5F42-D711-499A-B47F-11E353F96F8A}" name="Roles Assignment Model" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{13860EF0-E108-453A-B4F0-BF4407F583EB}" name="Parent Folder ID" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{75FE23B7-3A10-47F6-A482-B742DB549888}" name="Parent Folder Name" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,13 +1772,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{53545213-0823-4855-82C0-CBF3680CEBEF}" name="Create New Package Feed" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{1629EEA8-0A04-47B6-959A-94707301E32E}" name="Type" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{554ACE0F-14A0-4C52-B426-ABC478833011}" name="Folder Name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{6D933BDD-AD4A-46BD-8368-548E99B8F945}" name="Roles Assignment Model" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent Folder Name" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{53545213-0823-4855-82C0-CBF3680CEBEF}" name="Create New Package Feed" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="Result" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,83 +1788,96 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Folder ID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="Folder Name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="Result" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45B4E212-FB25-4926-8EFE-7ED240AA856C}" name="Table149" displayName="Table149" ref="A1:E201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{45B4E212-FB25-4926-8EFE-7ED240AA856C}" name="Table149" displayName="Table149" ref="A1:E201" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="42" headerRowBorderDxfId="45" tableBorderDxfId="43">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="8" xr3:uid="{4DF34734-8AE3-42A6-851B-7A61AF64C654}" name="Folder ID" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{C0A7F287-AD13-4609-8BA1-3FA54A0E85DF}" name="Folder Name" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{997B1252-97F8-402D-A662-E222298C88F5}" name="User ID" totalsRowLabel="Total" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{DFA1F0BF-1FEF-4271-8839-7360B39B473E}" name="Username" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D98DA2EA-81F3-47A3-97EC-A18A3632C629}" name="Roles" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{4DF34734-8AE3-42A6-851B-7A61AF64C654}" name="Folder ID" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{C0A7F287-AD13-4609-8BA1-3FA54A0E85DF}" name="Folder Name" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{997B1252-97F8-402D-A662-E222298C88F5}" name="User ID" totalsRowLabel="Total" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{DFA1F0BF-1FEF-4271-8839-7360B39B473E}" name="Username" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{D98DA2EA-81F3-47A3-97EC-A18A3632C629}" name="Roles" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DDC6F694-073B-4FF6-BAAB-2D8BAA6EA050}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Folder Name" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="User Type" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Folder Name" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="User Type" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{27CBD4C8-9383-4F8D-AADD-FEDC2DEABF3A}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Folder Name" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="User Type" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Folder Name" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="User Type" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5AB929EC-5BE4-43C5-9C88-BF280FD1F15C}" name="Table13688" displayName="Table13688" ref="A1:F201" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="Modern Folder Name" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="User Type" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="Username" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="Names of Roles to Add" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="Names of Roles to Remove" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="Result" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9D480455-1BE6-4FEB-9796-1381F8601597}" name="Modern Folder Name" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{2862C53D-FB15-48F6-B5E6-6399482D1429}" name="User Type" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{4393DD17-361E-4B9B-B23B-082510BFE05E}" name="Username" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{47245EBD-FCCC-4593-A6D5-DC8E9899C7C4}" name="Names of Roles to Add" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{03B63F28-C72D-44EF-8EA8-93461C5F4B78}" name="Names of Roles to Remove" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{27017632-DB33-4EA9-830F-7E0C97F6E58B}" name="Result" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D5CEA886-0E9F-4813-B8E9-586B11FED1E7}" name="Table136810" displayName="Table136810" ref="A1:D201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{5A875516-10C8-449D-B27D-04CDC132B0B9}" name="Folder Name" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{22C24C1F-80BF-4A8B-9728-F312E2A054E8}" name="Machine Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{174C8A20-C533-4EDE-AA74-1C171776B7FA}" name="Assign" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DE530E13-D886-4B85-A046-E4D6279B35A3}" name="Result" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C741A763-C973-4E3D-9667-E279531D029B}" name="Table135" displayName="Table135" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{06DA14B0-5E22-4EEF-A18B-A35402B004D6}" name="Classic Folder Name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{26AAE292-FD7A-4736-9665-4C3F4F2E4691}" name="Environment Migration Policy" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{8B67F779-E5D4-454F-B1AE-BDF759F343F5}" name="Modern Folder Name" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{544CD008-7B91-4BD3-92D4-DA1FBA78F88E}" name="Process Migration Policy" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{03D952F5-9916-4976-9092-1E205FF9B082}" name="Asset Migration Policy" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{408FB860-E517-4375-BDC7-0BE41F885425}" name="Queue Migration Policy" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2757B022-A06D-4AF9-8F73-6B193C06B614}" name="Trigger Migration Policy" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2B291FE3-6124-4687-97DD-58D1D1D26077}" name="Robot Migration Policy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{38CA2D2B-A2DD-4A97-B630-520A89F12C7B}" name="Result" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12386,6 +12516,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFB4649-E887-4FB6-B712-001F0CBDC1AF}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="45.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="21"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="21"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="21"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="21"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="21"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="21"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="21"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="21"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="21"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="21"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="21"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="21"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="21"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="21"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="21"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="21"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="21"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="21"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="21"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="21"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="21"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="21"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="21"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="21"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="21"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="21"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="23"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="21"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="23"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="23"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="21"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="21"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="21"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="21"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="21"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="21"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="23"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="21"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="21"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="23"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="21"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="21"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="21"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="23"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="21"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="21"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="23"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="21"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="23"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="23"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="21"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="23"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="21"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="21"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="23"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="21"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="23"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="21"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="21"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="21"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="21"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="23"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="21"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="23"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="21"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="23"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="21"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="23"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="21"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="23"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="21"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="23"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="21"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="23"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="21"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="23"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="21"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="23"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="21"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="23"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="21"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="23"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="21"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="23"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="21"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="23"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="21"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="23"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="21"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="23"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="21"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="23"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="21"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="23"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="21"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="23"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="21"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="23"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="21"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="23"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="21"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="23"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="21"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="23"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{FDC9B195-BFF4-4D85-9A24-8B209A107CE9}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DD3B9-D83D-408E-AEF0-E69491DEC7A2}">
   <dimension ref="A1:I201"/>
   <sheetViews>
@@ -14639,7 +16016,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:H201">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$B2 = "Environments to Different Modern Folders"</formula>
     </cfRule>
   </conditionalFormatting>
